--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Zoker\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAEDCCD-067F-47CE-886A-C9BBA6C54AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6232CE-AB32-4298-95C0-3D06B858AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="1" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
   </bookViews>
   <sheets>
     <sheet name="三月" sheetId="1" r:id="rId1"/>
     <sheet name="四月" sheetId="2" r:id="rId2"/>
     <sheet name="五月" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +121,6 @@
     <t>完成列印</t>
   </si>
   <si>
-    <t>餵食器組裝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +238,6 @@
   </si>
   <si>
     <t>確認設備連線正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餵食器組、APP組、項圈組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,7 +277,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月21日</t>
+    <t>App新增計步器欄位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成餵食器組裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/28完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>USECASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理比較圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較餵食器、項圈、APP優缺點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餵食器組、項圈組、App組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成系統架構圖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成流程圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來不急就居居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論系統目標客群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +435,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +453,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +576,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,43 +588,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,20 +988,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C5206-62D9-4C25-B5E8-13C0B4FC1422}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="258" zoomScaleNormal="258" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="142" zoomScaleNormal="258" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -874,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -883,77 +1018,43 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
+      <c r="A2" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
         <v>45747</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
+      <c r="A3" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
         <v>45747</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7">
-        <v>45747</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="14">
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>45747</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2"/>
@@ -967,28 +1068,34 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12"/>
+      <c r="A10" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F4:F5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -996,20 +1103,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1017,163 +1124,231 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
+        <v>45761</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="14">
         <v>45768</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="20">
-        <v>45768</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>45768</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45775</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45768</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45775</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="15">
+        <v>45775</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8">
-        <v>45768</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45775</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
+      <c r="A6" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="13">
+        <v>45775</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45775</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45775</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="18">
-        <v>45775</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
-        <v>45775</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45761</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F6"/>
+  <autoFilter ref="D1:D9" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
+      <sortCondition descending="1" ref="D1:D9"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,82 +1358,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC595F-B35E-4B66-A58D-7C094EA290A4}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45782</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45789</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45796</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45796</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6232CE-AB32-4298-95C0-3D06B858AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90713CB5-B53E-4EA1-9759-0B0A4CFA1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="1" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="3" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
   </bookViews>
   <sheets>
     <sheet name="三月" sheetId="1" r:id="rId1"/>
     <sheet name="四月" sheetId="2" r:id="rId2"/>
     <sheet name="五月" sheetId="3" r:id="rId3"/>
+    <sheet name="4.21開會紀錄" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$9</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +364,21 @@
   </si>
   <si>
     <t>討論系統目標客群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>負責er的同學要知道他的中文是什麼
+如果需要飼主資訊（gmail、手機號碼、id)
+決定要獨立一個table還是新增欄位
+Type（餵食器3：1.廚餘重量、2.馬達轉動角度決定餵食公克數、3.餵食器儲存量）（項圈5：）
+er圖要全部重新設計(完成時間不要超過5月底）
+設計完讓項圈組和餵食器組填
+決定心跳血氧什麼狀況要進行通知（3種不同組合需討論決定）
+mqtt 的table刪掉
+項圈組裝（雙層項圈）（需要備案）
+計步器要由web組項圈組決定何謂正常值
+對比其他產品優勢：廚餘系統
+下禮拜要完成：提醒功能完善、MQTT接受訊息（項圈）、完成ER圖、APP顯示狀態訊息、完善資料庫、通知設定完成、完成USECASE系統、完成系統架構圖、決定明確的受眾 找出特色強化功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,56 +619,56 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,14 +1010,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1025,7 +1041,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1041,7 +1057,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1068,8 +1084,6 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
@@ -1084,14 +1098,14 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1105,18 +1119,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1140,7 +1154,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1153,12 +1167,12 @@
         <v>45761</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="14">
+      <c r="F2" s="25">
         <v>45768</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1174,7 +1188,7 @@
       <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1187,12 +1201,12 @@
         <v>45775</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="15">
+      <c r="F4" s="27">
         <v>45775</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1205,10 +1219,10 @@
         <v>45775</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4"/>
@@ -1219,10 +1233,10 @@
         <v>45775</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1235,10 +1249,10 @@
         <v>45775</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1251,10 +1265,10 @@
         <v>45775</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1267,10 +1281,10 @@
         <v>45775</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="3"/>
@@ -1281,10 +1295,10 @@
         <v>45775</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="2"/>
@@ -1295,10 +1309,10 @@
         <v>45775</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="2"/>
@@ -1309,10 +1323,10 @@
         <v>45775</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="3"/>
@@ -1323,7 +1337,7 @@
         <v>45775</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
@@ -1331,12 +1345,12 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1364,14 +1378,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1427,7 +1441,7 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2"/>
@@ -1439,7 +1453,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
@@ -1505,7 +1519,7 @@
       <c r="F10" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1513,4 +1527,370 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05698818-D6B5-491A-8C32-51604E4DAF39}">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90713CB5-B53E-4EA1-9759-0B0A4CFA1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A454DB-836D-47EA-AD2A-CDDA83F93C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="3" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
   </bookViews>
   <sheets>
     <sheet name="三月" sheetId="1" r:id="rId1"/>
     <sheet name="四月" sheetId="2" r:id="rId2"/>
     <sheet name="五月" sheetId="3" r:id="rId3"/>
-    <sheet name="4.21開會紀錄" sheetId="4" r:id="rId4"/>
+    <sheet name="六月" sheetId="5" r:id="rId4"/>
+    <sheet name="4.21開會紀錄" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,19 +283,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成餵食器組裝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/28完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -359,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>來不急就居居</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>討論系統目標客群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,6 +370,21 @@
 下禮拜要完成：提醒功能完善、MQTT接受訊息（項圈）、完成ER圖、APP顯示狀態訊息、完善資料庫、通知設定完成、完成USECASE系統、完成系統架構圖、決定明確的受眾 找出特色強化功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>協調各項數據傳輸及處理</t>
+  </si>
+  <si>
+    <t>確認提醒內容及時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,8 +462,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,67 +616,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,6 +660,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,17 +1055,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="258" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1041,7 +1089,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1057,7 +1105,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1088,26 +1136,22 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
+      <c r="A10" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,20 +1161,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="37.75" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1143,226 +1187,104 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="28">
         <v>45761</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="25">
-        <v>45768</v>
-      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="25">
         <v>45775</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25">
+        <v>45775</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="26" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="28">
         <v>45775</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="27">
-        <v>45775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>45775</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="13">
-        <v>45775</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>45775</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45775</v>
-      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45775</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45775</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45775</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="28"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45775</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45775</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D9" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D9">
-      <sortCondition descending="1" ref="D1:D9"/>
+  <autoFilter ref="D1:D5" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D5">
+      <sortCondition descending="1" ref="D1:D5"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="F4:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1372,20 +1294,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC595F-B35E-4B66-A58D-7C094EA290A4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1398,129 +1320,171 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22">
+        <v>45782</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="40">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22">
+        <v>45782</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="33">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22">
+        <v>45782</v>
+      </c>
+      <c r="F4" s="40">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D5" s="27">
         <v>45782</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="33">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D6" s="22">
         <v>45782</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="40">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="27">
         <v>45782</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="33">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D8" s="22">
         <v>45789</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="40">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D11" s="6">
         <v>45796</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D12" s="35">
         <v>45796</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24" t="s">
-        <v>45</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1530,361 +1494,457 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F13C0E-9A8E-450F-92B7-B00DB7B2493A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05698818-D6B5-491A-8C32-51604E4DAF39}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="A1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A454DB-836D-47EA-AD2A-CDDA83F93C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC62230-33F7-4455-AA40-033FC9D2EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="2" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="3" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
   </bookViews>
   <sheets>
     <sheet name="三月" sheetId="1" r:id="rId1"/>
     <sheet name="四月" sheetId="2" r:id="rId2"/>
     <sheet name="五月" sheetId="3" r:id="rId3"/>
     <sheet name="六月" sheetId="5" r:id="rId4"/>
-    <sheet name="4.21開會紀錄" sheetId="4" r:id="rId5"/>
+    <sheet name="notion開會紀錄" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$5</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,9 +55,6 @@
   <si>
     <t>預計完成時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒功能完善</t>
   </si>
   <si>
     <r>
@@ -120,9 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成列印</t>
-  </si>
-  <si>
     <t>APP組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>解決電池問題</t>
-  </si>
-  <si>
-    <t>完善資料庫</t>
   </si>
   <si>
     <t>通知設定完成</t>
@@ -348,29 +339,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成流程圖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>討論系統目標客群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>負責er的同學要知道他的中文是什麼
-如果需要飼主資訊（gmail、手機號碼、id)
-決定要獨立一個table還是新增欄位
-Type（餵食器3：1.廚餘重量、2.馬達轉動角度決定餵食公克數、3.餵食器儲存量）（項圈5：）
-er圖要全部重新設計(完成時間不要超過5月底）
-設計完讓項圈組和餵食器組填
-決定心跳血氧什麼狀況要進行通知（3種不同組合需討論決定）
-mqtt 的table刪掉
-項圈組裝（雙層項圈）（需要備案）
-計步器要由web組項圈組決定何謂正常值
-對比其他產品優勢：廚餘系統
-下禮拜要完成：提醒功能完善、MQTT接受訊息（項圈）、完成ER圖、APP顯示狀態訊息、完善資料庫、通知設定完成、完成USECASE系統、完成系統架構圖、決定明確的受眾 找出特色強化功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>協調各項數據傳輸及處理</t>
   </si>
   <si>
@@ -382,7 +354,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
+    <t>https://www.notion.so/36a319d8309c49ac8abe713efc28bf51?pvs=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餵食器後端測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增鏡頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>項圈及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餵食器及APP測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒合前端介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER圖新增媒合資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增狀態圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成列印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顯示狀態訊息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTSP協定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚餘閘門測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秤重模組測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢領養狗狗程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成狀態圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,13 +528,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -470,8 +540,17 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,30 +571,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -542,17 +603,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -562,39 +612,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,10 +643,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,96 +655,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1055,17 +1032,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="258" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1073,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1082,51 +1059,47 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15">
         <v>45747</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15">
         <v>45747</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
@@ -1134,24 +1107,23 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30"/>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,120 +1133,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15">
         <v>45761</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="15">
         <v>45775</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1">
-      <c r="A4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15">
         <v>45775</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" s="26" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15">
         <v>45775</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" s="3"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="3"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="30"/>
+      <c r="E5"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D5" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
@@ -1282,10 +1259,6 @@
       <sortCondition descending="1" ref="D1:D5"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1294,20 +1267,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC595F-B35E-4B66-A58D-7C094EA290A4}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45796</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="18">
+        <v>45789</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45803</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="18">
+        <v>45810</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45803</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45803</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20">
+        <v>45796</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="18">
+        <v>45810</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F13C0E-9A8E-450F-92B7-B00DB7B2493A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1315,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1323,265 +1547,179 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22">
-        <v>45782</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="40">
-        <v>45789</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45838</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="36" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="22">
-        <v>45782</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="33">
-        <v>45789</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
-        <v>43</v>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="22">
-        <v>45782</v>
-      </c>
-      <c r="F4" s="40">
-        <v>45789</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45838</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="27">
-        <v>45782</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="33">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="22">
-        <v>45782</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="40">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="27">
-        <v>45782</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="33">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="22">
-        <v>45789</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="40">
-        <v>45789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45796</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="35">
-        <v>45796</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F13C0E-9A8E-450F-92B7-B00DB7B2493A}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>42</v>
+      <c r="A6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,363 +1732,366 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection sqref="A1:U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{B72F60D7-5873-47D4-BA7E-97063947C683}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuoj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF426DBF-4D69-43D6-A44F-7CA4C9155FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51D8D65-0771-450D-A019-EF1FCD4742DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="563" activeTab="4" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" firstSheet="2" activeTab="6" xr2:uid="{85368DA3-A919-45B8-974E-9714794315E0}"/>
   </bookViews>
   <sheets>
     <sheet name="三月" sheetId="1" r:id="rId1"/>
-    <sheet name="五月" sheetId="3" r:id="rId2"/>
-    <sheet name="四月" sheetId="2" r:id="rId3"/>
+    <sheet name="四月" sheetId="2" r:id="rId2"/>
+    <sheet name="五月" sheetId="3" r:id="rId3"/>
     <sheet name="六月" sheetId="5" r:id="rId4"/>
     <sheet name="七月" sheetId="6" r:id="rId5"/>
-    <sheet name="notion開會紀錄" sheetId="4" r:id="rId6"/>
+    <sheet name="八月" sheetId="13" r:id="rId6"/>
+    <sheet name="notion開會紀錄" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">四月!$D$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">四月!$D$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>工作項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,13 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>協調各項數據傳輸及處理</t>
-  </si>
-  <si>
-    <t>確認提醒內容及時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +421,58 @@
     <t>完成甘特圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>實際完成時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開會展示時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於APP新增鏡頭操作介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寵物實際攜帶項圈測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確保飼料不會卡在轉盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細查詢收容所地區差異</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改以週為單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>細節寫進去重排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片草稿完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT內容擬定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月底開會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍影片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT英文版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,14 +542,6 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -582,11 +620,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,44 +652,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -662,11 +670,26 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,17 +1029,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="258" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1040,32 +1063,36 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>45747</v>
       </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>45747</v>
       </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
@@ -1081,9 +1108,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A8" s="17"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
@@ -1106,236 +1131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC595F-B35E-4B66-A58D-7C094EA290A4}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6">
-        <v>45782</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45796</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="17">
-        <v>45789</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45803</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45803</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A715FE-1D21-45BD-9BBE-7F3BCD38CE7C}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1351,76 +1161,80 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>45761</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>45775</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" s="14" customFormat="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" s="10" customFormat="1">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>45775</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="14" customFormat="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" s="10" customFormat="1">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>45775</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1435,9 +1249,10 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
@@ -1454,22 +1269,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F13C0E-9A8E-450F-92B7-B00DB7B2493A}">
-  <dimension ref="A1:F17"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC595F-B35E-4B66-A58D-7C094EA290A4}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="1" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1493,19 +1304,222 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="A2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45782</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45796</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45803</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45791</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45803</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45790</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F13C0E-9A8E-450F-92B7-B00DB7B2493A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>45831</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4"/>
@@ -1515,10 +1529,14 @@
       <c r="D3" s="6">
         <v>45838</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>45</v>
+      <c r="A4" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -1529,21 +1547,29 @@
       <c r="D4" s="6">
         <v>45838</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="6">
         <v>45838</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="2"/>
@@ -1553,10 +1579,14 @@
       <c r="D6" s="6">
         <v>45838</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
-        <v>52</v>
+      <c r="A7" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1565,46 +1595,68 @@
       <c r="D7" s="6">
         <v>45838</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="6">
         <v>45838</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14">
+        <v>45838</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>45838</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="24">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="24">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1613,40 +1665,68 @@
       <c r="D11" s="6">
         <v>45838</v>
       </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>45838</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="6">
         <v>45838</v>
       </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45838</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6">
+        <v>45838</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18" t="s">
-        <v>41</v>
+      <c r="A16" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1658,20 +1738,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959C8AE9-2DDA-46DD-B233-F44C8B9381BD}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="1" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1695,48 +1773,118 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="14">
         <v>45845</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="14">
         <v>45869</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45869</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14">
+        <v>45869</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,18 +1893,142 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C510451-0881-4048-BF7F-005DF3D08C68}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05698818-D6B5-491A-8C32-51604E4DAF39}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -2111,4 +2383,298 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F62136DE91B5AC4FB8B4D80E37AED433" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20e757505fe8b87eaded4dced2f3bf2e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e263fdbe-65cf-44ae-be34-143a9c00679c" xmlns:ns4="c8f83424-7f8a-4aff-b741-fd9118c82e8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="615732047e3de8704e3f036defc8a144" ns3:_="" ns4:_="">
+    <xsd:import namespace="e263fdbe-65cf-44ae-be34-143a9c00679c"/>
+    <xsd:import namespace="c8f83424-7f8a-4aff-b741-fd9118c82e8b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e263fdbe-65cf-44ae-be34-143a9c00679c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_activity" ma:index="8" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="13" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c8f83424-7f8a-4aff-b741-fd9118c82e8b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="22" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e263fdbe-65cf-44ae-be34-143a9c00679c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3B7025E-EEE4-4825-897F-6F722EA6276B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e263fdbe-65cf-44ae-be34-143a9c00679c"/>
+    <ds:schemaRef ds:uri="c8f83424-7f8a-4aff-b741-fd9118c82e8b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B03468-CA11-4E50-89F9-54C4B3CF15D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e263fdbe-65cf-44ae-be34-143a9c00679c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c8f83424-7f8a-4aff-b741-fd9118c82e8b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA44B581-31C0-4513-8479-73C968FB720C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>